--- a/Outputs/appendix/t-costs.xlsx
+++ b/Outputs/appendix/t-costs.xlsx
@@ -15,7 +15,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>state name</t>
+    <t>State Name</t>
   </si>
   <si>
     <t>Andhra Pradesh</t>
